--- a/实验结果/矩形格子算法_Tile大小对比/矩形格子算法_对比_25000.xlsx
+++ b/实验结果/矩形格子算法_Tile大小对比/矩形格子算法_对比_25000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="1440" windowWidth="25600" windowHeight="15460" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,8 +410,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,8 +431,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="203">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -532,6 +537,7 @@
     <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -632,6 +638,7 @@
     <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -860,11 +867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1998925336"/>
-        <c:axId val="1998697816"/>
+        <c:axId val="-2138519144"/>
+        <c:axId val="-2138513352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1998925336"/>
+        <c:axId val="-2138519144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,13 +881,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1998697816"/>
+        <c:crossAx val="-2138513352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1998697816"/>
+        <c:axId val="-2138513352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27.0"/>
@@ -893,7 +900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1998925336"/>
+        <c:crossAx val="-2138519144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1275,7 +1282,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1329,22 +1336,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>115187</v>
+        <v>114777</v>
       </c>
       <c r="F2" s="1">
-        <v>176256</v>
+        <v>175334</v>
       </c>
       <c r="G2" s="1">
-        <v>27342</v>
+        <v>27304.5</v>
       </c>
       <c r="H2" s="1">
-        <v>61102</v>
+        <v>60620.5</v>
       </c>
       <c r="I2" s="1">
-        <v>133749</v>
+        <v>132825.5</v>
       </c>
       <c r="J2" s="1">
-        <v>15137</v>
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -1411,7 +1418,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1473,23 +1480,23 @@
       <c r="D2" s="1">
         <v>99.3</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -1577,7 +1584,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1639,23 +1646,23 @@
       <c r="D2" s="1">
         <v>99.1</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -1743,7 +1750,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1805,23 +1812,23 @@
       <c r="D2" s="1">
         <v>98.2</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -1909,7 +1916,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1971,23 +1978,23 @@
       <c r="D2" s="1">
         <v>99</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -2075,7 +2082,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2137,23 +2144,23 @@
       <c r="D2" s="1">
         <v>98.45</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -2241,7 +2248,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2303,23 +2310,23 @@
       <c r="D2" s="1">
         <v>99.4</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -2407,7 +2414,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2469,23 +2476,23 @@
       <c r="D2" s="1">
         <v>98.800000000000011</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -2573,7 +2580,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2635,23 +2642,23 @@
       <c r="D2" s="1">
         <v>98.7</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -2739,7 +2746,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2801,23 +2808,23 @@
       <c r="D2" s="1">
         <v>98.45</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -2905,7 +2912,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2967,23 +2974,23 @@
       <c r="D2" s="1">
         <v>98.6</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -3070,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3133,23 +3140,23 @@
       <c r="D2" s="1">
         <v>96.199999999999989</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3165,23 +3172,23 @@
       <c r="D3" s="1">
         <v>99.25</v>
       </c>
-      <c r="E3" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F3" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G3" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H3" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I3" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J3" s="1">
-        <v>15137</v>
+      <c r="E3" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F3" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G3" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3197,23 +3204,23 @@
       <c r="D4" s="1">
         <v>98.85</v>
       </c>
-      <c r="E4" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F4" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G4" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H4" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I4" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J4" s="1">
-        <v>15137</v>
+      <c r="E4" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F4" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G4" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3229,23 +3236,23 @@
       <c r="D5" s="1">
         <v>98.9</v>
       </c>
-      <c r="E5" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F5" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G5" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H5" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I5" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J5" s="1">
-        <v>15137</v>
+      <c r="E5" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F5" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G5" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3261,23 +3268,23 @@
       <c r="D6" s="1">
         <v>99.25</v>
       </c>
-      <c r="E6" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F6" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G6" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H6" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I6" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J6" s="1">
-        <v>15137</v>
+      <c r="E6" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F6" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G6" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3293,23 +3300,23 @@
       <c r="D7" s="1">
         <v>99.15</v>
       </c>
-      <c r="E7" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F7" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G7" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H7" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I7" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J7" s="1">
-        <v>15137</v>
+      <c r="E7" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F7" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G7" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3325,23 +3332,23 @@
       <c r="D8" s="1">
         <v>99.25</v>
       </c>
-      <c r="E8" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F8" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G8" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H8" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I8" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J8" s="1">
-        <v>15137</v>
+      <c r="E8" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F8" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G8" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3357,23 +3364,23 @@
       <c r="D9" s="1">
         <v>99.3</v>
       </c>
-      <c r="E9" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F9" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G9" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H9" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I9" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J9" s="1">
-        <v>15137</v>
+      <c r="E9" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F9" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G9" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="19">
@@ -3389,23 +3396,23 @@
       <c r="D10" s="1">
         <v>99.1</v>
       </c>
-      <c r="E10" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F10" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G10" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H10" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I10" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J10" s="1">
-        <v>15137</v>
+      <c r="E10" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F10" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G10" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19">
@@ -3421,23 +3428,23 @@
       <c r="D11" s="1">
         <v>98.2</v>
       </c>
-      <c r="E11" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F11" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G11" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H11" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I11" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J11" s="1">
-        <v>15137</v>
+      <c r="E11" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F11" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G11" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>15140</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3468,23 +3475,23 @@
       <c r="D12" s="1">
         <v>99</v>
       </c>
-      <c r="E12" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F12" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G12" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H12" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I12" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J12" s="1">
-        <v>15137</v>
+      <c r="E12" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F12" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G12" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>15140</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3515,23 +3522,23 @@
       <c r="D13" s="1">
         <v>98.45</v>
       </c>
-      <c r="E13" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F13" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G13" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H13" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I13" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J13" s="1">
-        <v>15137</v>
+      <c r="E13" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F13" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G13" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>15140</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3562,23 +3569,23 @@
       <c r="D14" s="1">
         <v>99.4</v>
       </c>
-      <c r="E14" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F14" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G14" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H14" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I14" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J14" s="1">
-        <v>15137</v>
+      <c r="E14" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F14" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G14" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>15140</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3609,23 +3616,23 @@
       <c r="D15" s="1">
         <v>98.800000000000011</v>
       </c>
-      <c r="E15" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F15" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G15" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H15" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I15" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J15" s="1">
-        <v>15137</v>
+      <c r="E15" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F15" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G15" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>15140</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3656,23 +3663,23 @@
       <c r="D16" s="1">
         <v>98.7</v>
       </c>
-      <c r="E16" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F16" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G16" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H16" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I16" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J16" s="1">
-        <v>15137</v>
+      <c r="E16" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F16" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G16" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>15140</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3703,23 +3710,23 @@
       <c r="D17" s="1">
         <v>98.45</v>
       </c>
-      <c r="E17" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F17" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G17" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H17" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I17" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J17" s="1">
-        <v>15137</v>
+      <c r="E17" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F17" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G17" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>15140</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3750,23 +3757,23 @@
       <c r="D18" s="1">
         <v>98.6</v>
       </c>
-      <c r="E18" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F18" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G18" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H18" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I18" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J18" s="1">
-        <v>15137</v>
+      <c r="E18" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F18" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G18" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J18" s="7">
+        <v>15140</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3797,23 +3804,23 @@
       <c r="D19" s="1">
         <v>98.8</v>
       </c>
-      <c r="E19" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F19" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G19" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H19" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I19" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J19" s="1">
-        <v>15137</v>
+      <c r="E19" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F19" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G19" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>15140</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3844,23 +3851,23 @@
       <c r="D20" s="1">
         <v>98.25</v>
       </c>
-      <c r="E20" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F20" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G20" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H20" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I20" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J20" s="1">
-        <v>15137</v>
+      <c r="E20" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F20" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G20" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>15140</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3891,23 +3898,23 @@
       <c r="D21" s="1">
         <v>98.75</v>
       </c>
-      <c r="E21" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F21" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G21" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H21" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I21" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J21" s="1">
-        <v>15137</v>
+      <c r="E21" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F21" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G21" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I21" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J21" s="7">
+        <v>15140</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3938,23 +3945,23 @@
       <c r="D22" s="1">
         <v>98.1</v>
       </c>
-      <c r="E22" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F22" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G22" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H22" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I22" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J22" s="1">
-        <v>15137</v>
+      <c r="E22" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F22" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G22" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>15140</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3985,23 +3992,23 @@
       <c r="D23" s="1">
         <v>98.65</v>
       </c>
-      <c r="E23" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F23" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G23" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H23" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I23" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J23" s="1">
-        <v>15137</v>
+      <c r="E23" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F23" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G23" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J23" s="7">
+        <v>15140</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -4032,23 +4039,23 @@
       <c r="D24" s="1">
         <v>98.25</v>
       </c>
-      <c r="E24" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F24" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G24" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H24" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I24" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J24" s="1">
-        <v>15137</v>
+      <c r="E24" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F24" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G24" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J24" s="7">
+        <v>15140</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4079,23 +4086,23 @@
       <c r="D25" s="1">
         <v>99.65</v>
       </c>
-      <c r="E25" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F25" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G25" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H25" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I25" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J25" s="1">
-        <v>15137</v>
+      <c r="E25" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F25" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G25" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J25" s="7">
+        <v>15140</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -4126,23 +4133,23 @@
       <c r="D26" s="1">
         <v>98.550000000000011</v>
       </c>
-      <c r="E26" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F26" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G26" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H26" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I26" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J26" s="1">
-        <v>15137</v>
+      <c r="E26" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F26" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G26" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J26" s="7">
+        <v>15140</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4173,23 +4180,23 @@
       <c r="D27" s="1">
         <v>98.5</v>
       </c>
-      <c r="E27" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F27" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G27" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H27" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I27" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J27" s="1">
-        <v>15137</v>
+      <c r="E27" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F27" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G27" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>15140</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5251,7 +5258,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5313,23 +5320,23 @@
       <c r="D2" s="1">
         <v>98.8</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -5417,7 +5424,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5479,23 +5486,23 @@
       <c r="D2" s="1">
         <v>98.25</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -5582,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5645,23 +5652,23 @@
       <c r="D2" s="1">
         <v>98.75</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -5749,7 +5756,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5811,23 +5818,23 @@
       <c r="D2" s="1">
         <v>98.1</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -5915,7 +5922,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5977,23 +5984,23 @@
       <c r="D2" s="1">
         <v>98.65</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -6081,7 +6088,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6143,23 +6150,23 @@
       <c r="D2" s="1">
         <v>98.25</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -6247,7 +6254,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6309,23 +6316,23 @@
       <c r="D2" s="1">
         <v>99.65</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -6413,7 +6420,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6475,23 +6482,23 @@
       <c r="D2" s="1">
         <v>98.550000000000011</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -6579,7 +6586,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6641,23 +6648,23 @@
       <c r="D2" s="1">
         <v>98.5</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -6745,7 +6752,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6808,22 +6815,22 @@
         <v>96.199999999999989</v>
       </c>
       <c r="E2" s="1">
-        <v>115187</v>
+        <v>114777</v>
       </c>
       <c r="F2" s="1">
-        <v>176256</v>
+        <v>175334</v>
       </c>
       <c r="G2" s="1">
-        <v>27342</v>
+        <v>27304.5</v>
       </c>
       <c r="H2" s="1">
-        <v>61102</v>
+        <v>60620.5</v>
       </c>
       <c r="I2" s="1">
-        <v>133749</v>
+        <v>132825.5</v>
       </c>
       <c r="J2" s="1">
-        <v>15137</v>
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -6911,7 +6918,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6973,23 +6980,23 @@
       <c r="D2" s="1">
         <v>99.25</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -7077,7 +7084,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7139,23 +7146,23 @@
       <c r="D2" s="1">
         <v>98.85</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -7243,7 +7250,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7305,23 +7312,23 @@
       <c r="D2" s="1">
         <v>98.9</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -7409,7 +7416,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7471,23 +7478,23 @@
       <c r="D2" s="1">
         <v>99.25</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -7575,7 +7582,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7637,23 +7644,23 @@
       <c r="D2" s="1">
         <v>99.15</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
@@ -7741,7 +7748,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7803,23 +7810,23 @@
       <c r="D2" s="1">
         <v>99.25</v>
       </c>
-      <c r="E2" s="1">
-        <v>115187</v>
-      </c>
-      <c r="F2" s="1">
-        <v>176256</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27342</v>
-      </c>
-      <c r="H2" s="1">
-        <v>61102</v>
-      </c>
-      <c r="I2" s="1">
-        <v>133749</v>
-      </c>
-      <c r="J2" s="1">
-        <v>15137</v>
+      <c r="E2" s="7">
+        <v>114777</v>
+      </c>
+      <c r="F2" s="7">
+        <v>175334</v>
+      </c>
+      <c r="G2" s="7">
+        <v>27304.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>60620.5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>132825.5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15140</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="19"/>
